--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,14 +672,414 @@
           <t>가속화하다/ 촉진하다</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D10" t="n">
+        <v>20221219</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>08시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>be acquainted with</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>돌보다 / 보살피다</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>정통하다 / 잘 알다</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>elucidate</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>포함하다 / 에워싸다</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>설명하다 / 해명하다</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>09시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>incandescent</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>평판 좋은 / 존경할 만한</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>열정적인</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>now and then</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>이제껏 / 아직까지</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>때때로 / 가끔</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>segment</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>침입하다 / 개입하다</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>나누다 / 가르다</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>09시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>disinter</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>가까이 하지 않다 / 떨어져 있다</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>09시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>keep abreast of</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>~에 대해 책임지다</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>정통하다 / 잘 알다</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>annihilation</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>품질이 좋지 않은 물건</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>절멸 / 전멸 / 소멸</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>impart</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>버리다</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>알리다</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>09시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>affiliate</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>단언하다 / 확언하다</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>연결하다 / 가입하다</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>09시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>stipulate</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>몰두시키다 / 독점하다</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>요청하다 / 요구하다</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>09시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>devastate</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>급락하다</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>압도하다</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>reimburse</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>낙담시키다</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>보상하다</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>get hold of</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>눈에 띄다 / 인상적이다</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>연락하다</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>venerate</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>연습하다 / 연습시키다</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>경의를 표하다 / 존경하다</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>venerate</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>연결하다 / 가입하다</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>경의를 표하다 / 존경하다</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E26"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1072,14 +1072,289 @@
           <t>경의를 표하다 / 존경하다</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>20221220</t>
-        </is>
+      <c r="D26" t="n">
+        <v>20221220</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>malevolent</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>~에게 친절한</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>해로운</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>10시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>compulsive</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>외향적인 / 사교적인</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>중독성의</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>cozen</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>믿다</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>at the sight of</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>첫눈에 / 언뜻 보기에</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>~을 보고서</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>back down on</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>거절하다 / 거부하다</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>at one's disposal</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>관리할 수 있는</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>~가 원하는 대로 쓸 수 있는</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>mull</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>의심하다</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>고안하다 / 궁리하다</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>10시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>falsify</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>10시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>benevolent</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>즉시 이용가능한 / 정통한</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>호의적인</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>at variance with</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>혼란스러운 / 뒤죽박죽인</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>~와 상충하는[모순되는]</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20221221</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>10시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>adverse</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>~와는 완전히 다른</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>해로운</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>20221221</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>10시 18분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1347,14 +1347,664 @@
           <t>해로운</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>20221221</t>
-        </is>
+      <c r="D37" t="n">
+        <v>20221221</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>10시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>benevolent</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>눈에 띄는 / 현저한</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>호의적인</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>07시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>catenate</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>피하다</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>연결하다 / 관련시키다</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>malevolent</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>중독성의</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>해로운</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>07시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>cozen</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>완화하다 / 완화되다</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>악화시키다</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>at times (=sometimes / occasionally)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>전체적으로 / 전반적으로</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>가끔</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>at one's ebb tide</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>열정적인</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>쇠퇴하고 있는</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>meek</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>방수의</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>온화한</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>differentiate</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>버리다</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>식별하다 / 구별하다</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>incandescent</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>~와 사이가 나쁜</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>열정적인</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>07시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>regale</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>regale</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>완화하다</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>falsify</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>사기치다 / 사취하다</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>속이다</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>조사하다</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>perilous</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>경멸적인 / 경멸하는</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>위험한</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>07시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>delusion</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>고운 마음씨</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>환각 / 환상 / 망상</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>07시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>a far cry from</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>해로운</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>~와는 완전히 다른</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>07시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>compliant</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>자발적인</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>수동적인 / 소극적인 / 복종적인</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>07시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>provisionally</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>아무리 잘해야</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>잠정적으로 / 망설이면서</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>07시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>licit</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>부드러워지다 / 누그러뜨리다</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>정당화하다 / 합법화하다 / 합법의</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>endorse</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>강화하다</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>지지하다</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>07시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>unreserved</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>할 일이 없는 / 뭘 해야 할지 모르는</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>솔직한</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>07시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>literately</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>어쨌든</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>문화적으로 / 망설이면서</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>07시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>castigate</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>시작하다 / 착수하다 / 가입하다</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>처벌하다 / 벌하다</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>excavate</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>07시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>disinter</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>20221222</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1997,14 +1997,364 @@
           <t>발굴하다</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D63" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>07시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>regale</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>지우다</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>disinter</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>방해하다</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>benevolent</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>절연된 / 격리된</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>호의적인</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>licit</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>정당화하다 / 합법화하다 / 합법의</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>literately</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>사실</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>문화적으로 / 망설이면서</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>revoke</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>압도하다</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>철회하다</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>disinter</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>의견이 일치하다 / 동의하다</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>benevolent</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>남의 마음대로 되는</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>호의적인</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>all out</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>거의</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>사력을 다하여 / 전력으로</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>inventive</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>널리 퍼진 / 만연한</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>독창적인</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>moderate</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>모방하다</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>완화하다</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">at about (=near) </t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>사실상 / ~과 같은</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>~쯤에</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>21시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>utter</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>어찌할 바를 모르는 / 어리둥절한</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>완전한</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20221222</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>immaculate</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>무정한 / 냉담한</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>위생적인 / 깨끗한</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
         <is>
           <t>20221222</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>07시 41분</t>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>22시 00분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2347,14 +2347,790 @@
           <t>위생적인 / 깨끗한</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>20221222</t>
-        </is>
+      <c r="D77" t="n">
+        <v>20221222</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>22시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>immaculate</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>독창적인</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>위생적인 / 깨끗한</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20221226</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>23시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>in no time</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>거의</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>당장, 즉시</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>00시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>be snowed under</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~을 고수하다 / 들러붙다</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>크게 밀리다, 압도되다</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>00시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>in a flash</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>가까이에 / 머지않아</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>당장, 즉시</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>00시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>disinter</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>머리를 짜내다</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>00시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>be up for grabs</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>~에게 데이트를 신청하다</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>누구나 차지할 수 있다, 누구나 구할 수 있다</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>00시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>beef about</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>지우다</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>~에 대해 불평하다</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>00시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>be up in the air</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>방해하다</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>미정이다</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>06시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>in a flash</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>아무리 잘해야</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>당장, 즉시</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>06시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>be up to one's ears[neck] in</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>뽐내다 / 잘난 체하다</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>~으로 정신이 없다 / 바쁘다 / 할 일이 너무 많다</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>06시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>be taken aback</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>돌려 말하다 / 변죽을 울리다</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>깜짝 놀라다</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>demagogue</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr"/>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>선동자</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>be up for grabs</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>깜짝 놀라다</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>누구나 차지할 수 있다 / 누구나 구할 수 있다</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>06시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>beef about</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>(기간 종료 후에) 계속하다</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>~에 대해 불평하다</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>06시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>beat one's head against the wall</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr"/>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>헛된 노력을 하다 / 헛수고하다</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>be prone to R</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>집중하다</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>~하기 쉽다</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>06시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr"/>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>예술 애호가 / 아마추어의</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>poles asunder</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>06시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>behind the whell</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>시대에 뒤떨어진 / 구식의</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>운전 중인</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>06시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>behave oneself</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>~에 동의하다 / 묵인하다</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>얌전히 굴다</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>06시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>exult</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>축하하다 / 기념하다</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>06시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>be prone to R</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>정반대이다 / 전혀 다르다</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>~하기 쉽다</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>exult</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>의심하다</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>be up to one's ears[neck] in</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>돌려 말하다 / 변죽을 울리다</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>~으로 정신이 없다 / 바쁘다 / 할 일이 너무 많다</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>docile</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>~에 정통한</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>수동적인 / 소극적인 / 복종적인</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>venerate</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>지우다</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>경의를 표하다 / 존경하다</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sanctify</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>거절하다 / 거부하다</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>정당화하다 / 합법화하다 / 합법의</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>06시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>brush aside</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr"/>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>무시하다 / 일축하다</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>06시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>hold over</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>집어 올리다 / 회복하다</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>(기간 종료 후에) 계속하다</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>impair</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>규제하다 / 통제하다</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>손상시키다</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>06시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>necessitate</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>요청하다 / 요구하다</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20221227</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>06시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>tranquilize</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr"/>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>안정하다 / 고정시키다</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>20221227</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>06시 50분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3123,14 +3123,685 @@
           <t>안정하다 / 고정시키다</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>20221227</t>
-        </is>
+      <c r="D109" t="n">
+        <v>20221227</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>06시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>beef about</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>부드러워지다, 누그러뜨리다</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>~에 대해 불평하다</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>11시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>be taken aback</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>의심하다</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>깜짝 놀라다</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>11시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>every so often</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>지체없이, 신호가 떨어지자마자. 곧바로</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>때때로</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>11시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>bite one's nails</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>매여 있다</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>분개하다</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>11시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>bend over backwards</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>크게 밀리다, 압도되다</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>안간힘을 쓰다</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>11시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>stellar</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>외향적인, 사교적인</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>가장 중요한, 최고의</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>11시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>elated</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>즐거운</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>11시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>occult</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>쾌활한</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>불가사의한, 이해하기 힘든</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>11시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>boss a person around</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>안부를 묻다</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>남을 좌지우지하다, 남에게 명령하다</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>11시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>weary</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>온화한</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>지친</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>elated</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>쾌활한</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>즐거운</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>11시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>be up to one's ears[neck] in</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>어색한 분위기를 깨다</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>~으로 정신이 없다, 바쁘다, 할 일이 너무 많다</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>11시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>occult</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>설득력 있는</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>불가사의한, 이해하기 힘든</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>11시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>beat one's head against the wall</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>선두에 서다, 우승하다</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>헛된 노력을 하다, 헛수고하다</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>venerate</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>11시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>get cold feet</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>멍든</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>겁이 나다, 겁내는, 겁이 난</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>11시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>dilettante</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>아수라장, 엉망진창</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>예술 애호가, 아마추어의</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>getting ahead</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>즐거운</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>성공한</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>11시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>be prone to R</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>삼가다, 그만두다</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>~하기 쉽다</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>11시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>jubilant</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>성공한</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>즐거운</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>oppress</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>이성을 잃다, 흥분하다</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>슬프게 하다, 우울하게 하다</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>11시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>blue in the face</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>지친</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>격분하여 새파래진, 지쳐서 창백한</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>break down</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>간섭하다</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>고장다나(자동사), ~을 분류하다</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>11시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>poles asunder</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>고비를 넘다</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>전혀다른</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>every so often</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>가끔</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>때때로</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>tranquilize</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>조사하다</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>안정하다, 고정시키다</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>11시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>exult</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>침입하다</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>기뻐하다</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>20230103</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>11시 55분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3794,14 +3794,139 @@
           <t>기뻐하다</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
+      <c r="D136" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>11시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>scrub</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>버리다</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>취소하다, 무효화하다</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>part from</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>시작하다, 착수하다, 가입하다</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>헤어지다, 관계를 끊다</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>21시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>haphazard</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>내심으로는, 본심으로는</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>우연한</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>inadvertent</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>~에 정통한</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>우연한</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230103</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>make shift with</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>~에 달려 있다</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>임시 변통하다</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
         <is>
           <t>20230103</t>
         </is>
       </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>11시 55분</t>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:E171"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3919,14 +3919,764 @@
           <t>임시 변통하다</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>20230103</t>
-        </is>
+      <c r="D141" t="n">
+        <v>20230103</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>weary</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>지친</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>06시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>casual</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>솔직한</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>우연한</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>06시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>intriguing</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>~의 명령 즉시 따를 준비가 된</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>재미있는</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>06시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>affectionate</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>중독성의</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>친절한, 다정한</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>06시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>indicate</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>~을 고수하다, 들러붙다</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>표현하다, 나타내다</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>06시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>call off</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>언쟁하다, 말다툼하다</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>취소하다, 무효화하다</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>06시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>perfunctory</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>증기를 내는, 안개가 많은, 공상적인</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>공식적인, 형식적인</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>06시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>cummence</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>유발하다</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>시작하다, 착수하다</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>plead</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>흘끗 보다</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>주장하다, 단언하다</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>06시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>call it a day</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>논쟁하다, 반박하다</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>끝내다</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>06시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>part from</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>놓아주다</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>헤어지다, 관계를 끊다</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>annul</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>의견이 일치하다, 동의하다</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>취소하다, 무효화하다</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>06시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>jubilant</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>진실한, 진심의, 진짜의</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>즐거운</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>06시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>annul</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>화나게 하다</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>취소하다, 무효화하다</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>06시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>의무적인, 강제적인</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>06시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>plead</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>방해하다</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>주장하다, 단언하다</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>06시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>perfunctory</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>낙관적인</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>공식적인, 형식적인</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>strip</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>나누다, 가르다</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>제거하다</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>make do with</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>~을 찬성하다, 승낙하다</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>임시 변통하다</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>separate</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>~을 분리시키다, ~을 중단하다</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>헤어지다, 관계를 끊다</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>06시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>intriguing</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>온화한</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>재미있는</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>06시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>genial</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>내심으로는, 본심으로는</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>친절한, 다정한</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>06시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>casual</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>~하기 쉬운</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>우연한</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>06시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>06시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>venerate</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>맹세하다, 선서하다</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>06시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>perfunctory</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>편리한</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>공식적인, 형식적인</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>06시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>의무적인, 강제적인</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>in lieu of</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>~의 재량으로</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>~대신에</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>maneuver</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>설명하다</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>연습하다, 연습시키다</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230104</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>in lieu of</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>사실상, ~과 같은</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>~대신에</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>20230104</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>06시 42분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4669,14 +4669,1214 @@
           <t>~대신에</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>20230104</t>
-        </is>
+      <c r="D171" t="n">
+        <v>20230104</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
           <t>06시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>grant</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>(물건을) 싸다</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>확인하다, 승인하다</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>06시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>delegation</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>열망하는</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>의존적인, 의존하는, 파견단, 분담액</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>fugitive</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>일시적인, 순간의</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>06시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>disreputable</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>주목하는</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>수치스러운, 불명예스러운</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>06시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>unequivocal</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>06시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>enthrall</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>주장하다, 단언하다</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>(마음을) 사로잡다</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>06시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>paltry</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>호의적인</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>사소한, 천박한</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>authorize</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>~을 요청하다</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>확인하다, 승인하다</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>immortal</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>지속되는, 영구적인</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>06시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>위험한</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>06시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>discreditable</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>냉혹한, 무자비한, 건장한</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>수치스러운, 불명예스러운</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>06시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>disgraceful</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>수치스러운, 불명예스러운</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>06시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>captivate</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>발굴하다</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>(마음을) 사로잡다</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>responsive</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>수동적인, 소극적인, 복종적인</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>민감한, 예민한</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>bulwark</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>(시세가) 바닥을 치다, (시세가) 바닥을 치고 다시 상승세를 타다</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>지키다, 보호하다, 방어하다</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>06시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>underway</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>진행 중인</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>06시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>ascentain</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>부드러워지다, 누그러뜨리다</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>확인하다, 승인하다</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>06시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>petty</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>성공한</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>사소한, 천박한</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>06시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>evident</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>완전한</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>06시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>trifling</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>해로운</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>사소한, 천박한</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>06시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>detest</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>규제하다, 통제하다</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>혐오하다</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>06시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>inclusive</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>쇠퇴하고 있는</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>포괄적인</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>06시 37분</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>luminous</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>throw up</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>배회하다</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>포기하다, 그만두다</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>06시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>alimentary</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>외향적인, 사교적인</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>지탱하는, 부양하는</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>06시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>intricate</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>수치스러운, 불명예스러운</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>복잡한</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>06시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>tentative</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>여분의</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>일시적인, 순간의</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>06시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>bulwark</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>맹세하다, 선서하다</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>지키다, 보호하다, 방어하다</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>06시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>delegation</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>열망하는</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>의존적인, 의존하는, 파견단, 분담액</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>06시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>petty</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>사소한, 천박한</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>evident</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>수치스러운, 불명예스러운</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>06시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>supportive</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>설득력 있는</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>지탱하는, 부양하는</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>enthrall</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>발사하다</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>(마음을) 사로잡다</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>06시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>renounce</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>매여 있다</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>포기하다, 그만두다</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>trifling</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>외향적인, 사교적인</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>사소한, 천박한</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>authorize</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>주장하다, 단언하다</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>확인하다, 승인하다</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>luminous</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>사치스러운</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>07시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>presumptuous</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>이상한</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>거만한, 건방진</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>fugitive</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>시대에 뒤떨어진, 구식의</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>일시적인, 순간의</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>obsess</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>끝내다</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>(마음을) 사로잡다</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>07시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>provisional</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>설득력 있는</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>일시적인, 순간의</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>07시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>ascentain</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>완화하다, 완화되다</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>확인하다, 승인하다</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>immortal</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>투옥된</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>지속되는, 영구적인</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>07시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>alimentary</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>편리한</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>지탱하는, 부양하는</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>discharge</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>강탈하다, 지연시키다</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>발사하다</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>07시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>be taken aback</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>경의를 표하다, 존경하다</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>깜짝 놀라다</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>07시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>segment</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>놓아주다</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>나누다, 가르다</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
+        <v>20230105</v>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>07시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>assured</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>평판 좋은, 존경할 만한</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>자신감 있는</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>20230105</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>07시 26분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어_단어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E219"/>
+  <dimension ref="A1:E230"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5869,14 +5869,285 @@
           <t>자신감 있는</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr">
-        <is>
-          <t>20230105</t>
-        </is>
+      <c r="D219" t="n">
+        <v>20230105</v>
       </c>
       <c r="E219" t="inlineStr">
         <is>
           <t>07시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>alimentary</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>투옥된</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>지탱하는, 부양하는</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>06시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>bulwark</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>침입하다, 난입하다</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>지키다, 보호하다, 방어하다</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>06시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>luminous</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>07시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>discharge</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>쓴웃음을 지으며 참다</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>발사하다</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>07시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>delegation</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>암시적인, 함축적인</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>의존적인, 의존하는, 파견단, 분담액</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>07시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>unequivocal</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>쇠퇴하고 있는</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>07시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>segment</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>헛된 노력을 하다, 헛수고하다</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>나누다, 가르다</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>07시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>reckon</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>침입하다</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>계산하다, 추정하다</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>07시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>expedient</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>분명한, 명백한</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>편리한</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>07시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>cruel</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr"/>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>무정한, 냉담한</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
+        <v>20230106</v>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>07시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>delusive</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>혼란스러운, 뒤죽박죽인</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>남을 속이는, 기만적인</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>20230106</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>07시 19분</t>
         </is>
       </c>
     </row>
